--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample04-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample04-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$5:$K$5</definedName>
@@ -16068,4 +16069,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample04-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample04-from-config-file.xlsx
@@ -1380,7 +1380,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1432,12 +1432,6 @@
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1520,17 +1514,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="21.1530857086182" customWidth="1"/>
+    <col min="3" max="3" width="20.0285186767578" customWidth="1"/>
     <col min="4" max="4" width="17.7731246948242" customWidth="1"/>
     <col min="5" max="5" width="26.5398646763393" customWidth="1"/>
     <col min="6" max="6" width="36.7100655691964" customWidth="1"/>
     <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="14.2519204275949" customWidth="1"/>
     <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
+    <col min="11" max="11" width="9.59976305280413" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="100.5" customHeight="1"/>
@@ -1646,7 +1640,7 @@
       <c r="B6" s="10">
         <v>40248</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1681,7 +1675,7 @@
       <c r="B7" s="11">
         <v>40342</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -1716,7 +1710,7 @@
       <c r="B8" s="10">
         <v>40436</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1751,7 +1745,7 @@
       <c r="B9" s="11">
         <v>40669</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -1786,7 +1780,7 @@
       <c r="B10" s="10">
         <v>41209</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1821,7 +1815,7 @@
       <c r="B11" s="11">
         <v>41250</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -1856,7 +1850,7 @@
       <c r="B12" s="10">
         <v>41493</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1881,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="12">
-        <v>8.90999984741211</v>
+        <v>-8.90999984741211</v>
       </c>
     </row>
     <row r="13">
@@ -1891,7 +1885,7 @@
       <c r="B13" s="11">
         <v>39814</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1926,7 +1920,7 @@
       <c r="B14" s="10">
         <v>39855</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1961,7 +1955,7 @@
       <c r="B15" s="11">
         <v>40098</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -1996,7 +1990,7 @@
       <c r="B16" s="10">
         <v>40682</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -2031,7 +2025,7 @@
       <c r="B17" s="11">
         <v>40776</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -2066,7 +2060,7 @@
       <c r="B18" s="10">
         <v>40870</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -2101,7 +2095,7 @@
       <c r="B19" s="11">
         <v>41103</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -2126,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="K19" s="13">
-        <v>0.99000000953674316</v>
+        <v>-0.99000000953674316</v>
       </c>
     </row>
     <row r="20">
@@ -2136,7 +2130,7 @@
       <c r="B20" s="10">
         <v>40248</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -2171,7 +2165,7 @@
       <c r="B21" s="11">
         <v>40289</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -2206,7 +2200,7 @@
       <c r="B22" s="10">
         <v>40532</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -2231,7 +2225,7 @@
         <v>38</v>
       </c>
       <c r="K22" s="12">
-        <v>8.90999984741211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2241,7 +2235,7 @@
       <c r="B23" s="11">
         <v>41116</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2276,7 +2270,7 @@
       <c r="B24" s="10">
         <v>41210</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -2311,7 +2305,7 @@
       <c r="B25" s="11">
         <v>41304</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -2346,7 +2340,7 @@
       <c r="B26" s="10">
         <v>41537</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -2381,7 +2375,7 @@
       <c r="B27" s="11">
         <v>39815</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2416,7 +2410,7 @@
       <c r="B28" s="10">
         <v>39909</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -2451,7 +2445,7 @@
       <c r="B29" s="11">
         <v>40142</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -2486,7 +2480,7 @@
       <c r="B30" s="10">
         <v>40682</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -2521,7 +2515,7 @@
       <c r="B31" s="11">
         <v>40723</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -2556,7 +2550,7 @@
       <c r="B32" s="10">
         <v>40966</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -2591,7 +2585,7 @@
       <c r="B33" s="11">
         <v>41550</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -2626,7 +2620,7 @@
       <c r="B34" s="10">
         <v>40155</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="16" t="s">
@@ -2661,7 +2655,7 @@
       <c r="B35" s="11">
         <v>40249</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -2696,7 +2690,7 @@
       <c r="B36" s="10">
         <v>40343</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -2731,7 +2725,7 @@
       <c r="B37" s="11">
         <v>40576</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -2756,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="13">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2766,7 +2760,7 @@
       <c r="B38" s="10">
         <v>41116</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="16" t="s">
@@ -2801,7 +2795,7 @@
       <c r="B39" s="11">
         <v>41157</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -2836,7 +2830,7 @@
       <c r="B40" s="10">
         <v>41400</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="16" t="s">
@@ -2871,7 +2865,7 @@
       <c r="B41" s="11">
         <v>40005</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -2906,7 +2900,7 @@
       <c r="B42" s="10">
         <v>40589</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -2941,7 +2935,7 @@
       <c r="B43" s="11">
         <v>40683</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -2976,7 +2970,7 @@
       <c r="B44" s="10">
         <v>40777</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -3011,7 +3005,7 @@
       <c r="B45" s="11">
         <v>41010</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -3046,7 +3040,7 @@
       <c r="B46" s="10">
         <v>41550</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="16" t="s">
@@ -3081,7 +3075,7 @@
       <c r="B47" s="11">
         <v>41591</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -3116,7 +3110,7 @@
       <c r="B48" s="10">
         <v>40155</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="16" t="s">
@@ -3151,7 +3145,7 @@
       <c r="B49" s="11">
         <v>40196</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -3186,7 +3180,7 @@
       <c r="B50" s="10">
         <v>40439</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -3221,7 +3215,7 @@
       <c r="B51" s="11">
         <v>41023</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -3246,7 +3240,7 @@
         <v>64</v>
       </c>
       <c r="K51" s="13">
-        <v>1.9800000190734863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3256,7 +3250,7 @@
       <c r="B52" s="10">
         <v>41117</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="16" t="s">
@@ -3291,7 +3285,7 @@
       <c r="B53" s="11">
         <v>41211</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -3326,7 +3320,7 @@
       <c r="B54" s="10">
         <v>41444</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -3361,7 +3355,7 @@
       <c r="B55" s="11">
         <v>39816</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -3396,7 +3390,7 @@
       <c r="B56" s="10">
         <v>40049</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -3431,7 +3425,7 @@
       <c r="B57" s="11">
         <v>40589</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -3466,7 +3460,7 @@
       <c r="B58" s="10">
         <v>40630</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="16" t="s">
@@ -3501,7 +3495,7 @@
       <c r="B59" s="11">
         <v>40873</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -3536,7 +3530,7 @@
       <c r="B60" s="10">
         <v>41457</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="16" t="s">
@@ -3571,7 +3565,7 @@
       <c r="B61" s="11">
         <v>41551</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -3606,7 +3600,7 @@
       <c r="B62" s="10">
         <v>40062</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D62" s="16" t="s">
@@ -3641,7 +3635,7 @@
       <c r="B63" s="11">
         <v>40156</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -3676,7 +3670,7 @@
       <c r="B64" s="10">
         <v>40250</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -3711,7 +3705,7 @@
       <c r="B65" s="11">
         <v>40483</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -3746,7 +3740,7 @@
       <c r="B66" s="10">
         <v>41023</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -3781,7 +3775,7 @@
       <c r="B67" s="11">
         <v>41064</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -3816,7 +3810,7 @@
       <c r="B68" s="10">
         <v>41307</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="16" t="s">
@@ -3851,7 +3845,7 @@
       <c r="B69" s="11">
         <v>39912</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="17" t="s">
@@ -3886,7 +3880,7 @@
       <c r="B70" s="10">
         <v>40496</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="16" t="s">
@@ -3921,7 +3915,7 @@
       <c r="B71" s="11">
         <v>40590</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -3956,7 +3950,7 @@
       <c r="B72" s="10">
         <v>40684</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="16" t="s">
@@ -3991,7 +3985,7 @@
       <c r="B73" s="11">
         <v>40917</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="17" t="s">
@@ -4026,7 +4020,7 @@
       <c r="B74" s="10">
         <v>41457</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="16" t="s">
@@ -4061,7 +4055,7 @@
       <c r="B75" s="11">
         <v>41498</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -4096,7 +4090,7 @@
       <c r="B76" s="10">
         <v>40062</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D76" s="16" t="s">
@@ -4131,7 +4125,7 @@
       <c r="B77" s="11">
         <v>40103</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D77" s="17" t="s">
@@ -4166,7 +4160,7 @@
       <c r="B78" s="10">
         <v>40346</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="16" t="s">
@@ -4201,7 +4195,7 @@
       <c r="B79" s="11">
         <v>40930</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D79" s="17" t="s">
@@ -4236,7 +4230,7 @@
       <c r="B80" s="10">
         <v>41024</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D80" s="16" t="s">
@@ -4271,7 +4265,7 @@
       <c r="B81" s="11">
         <v>41118</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="17" t="s">
@@ -4306,7 +4300,7 @@
       <c r="B82" s="10">
         <v>41351</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="16" t="s">
@@ -4341,7 +4335,7 @@
       <c r="B83" s="11">
         <v>39956</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="17" t="s">
@@ -4366,7 +4360,7 @@
         <v>96</v>
       </c>
       <c r="K83" s="13">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4376,7 +4370,7 @@
       <c r="B84" s="10">
         <v>40496</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="16" t="s">
@@ -4411,7 +4405,7 @@
       <c r="B85" s="11">
         <v>40537</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D85" s="17" t="s">
@@ -4446,7 +4440,7 @@
       <c r="B86" s="10">
         <v>40780</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D86" s="16" t="s">
@@ -4481,7 +4475,7 @@
       <c r="B87" s="11">
         <v>41364</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="17" t="s">
@@ -4516,7 +4510,7 @@
       <c r="B88" s="10">
         <v>41458</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="16" t="s">
@@ -4551,7 +4545,7 @@
       <c r="B89" s="11">
         <v>41552</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="17" t="s">
@@ -4586,7 +4580,7 @@
       <c r="B90" s="10">
         <v>39969</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="16" t="s">
@@ -4621,7 +4615,7 @@
       <c r="B91" s="11">
         <v>40063</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="17" t="s">
@@ -4656,7 +4650,7 @@
       <c r="B92" s="10">
         <v>40157</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="16" t="s">
@@ -4691,7 +4685,7 @@
       <c r="B93" s="11">
         <v>40390</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D93" s="17" t="s">
@@ -4726,7 +4720,7 @@
       <c r="B94" s="10">
         <v>40930</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D94" s="16" t="s">
@@ -4761,7 +4755,7 @@
       <c r="B95" s="11">
         <v>40971</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="17" t="s">
@@ -4796,7 +4790,7 @@
       <c r="B96" s="10">
         <v>41214</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="16" t="s">
@@ -4831,7 +4825,7 @@
       <c r="B97" s="11">
         <v>39819</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -4866,7 +4860,7 @@
       <c r="B98" s="10">
         <v>40403</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="16" t="s">
@@ -4901,7 +4895,7 @@
       <c r="B99" s="11">
         <v>40497</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -4936,7 +4930,7 @@
       <c r="B100" s="10">
         <v>40591</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D100" s="16" t="s">
@@ -4971,7 +4965,7 @@
       <c r="B101" s="11">
         <v>40824</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D101" s="17" t="s">
@@ -5006,7 +5000,7 @@
       <c r="B102" s="10">
         <v>41364</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="16" t="s">
         <v>104</v>
       </c>
       <c r="D102" s="16" t="s">
@@ -5041,7 +5035,7 @@
       <c r="B103" s="11">
         <v>41405</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="17" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="17" t="s">
@@ -5076,7 +5070,7 @@
       <c r="B104" s="10">
         <v>39969</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D104" s="16" t="s">
@@ -5111,7 +5105,7 @@
       <c r="B105" s="11">
         <v>40010</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -5146,7 +5140,7 @@
       <c r="B106" s="10">
         <v>40253</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D106" s="16" t="s">
@@ -5181,7 +5175,7 @@
       <c r="B107" s="11">
         <v>40837</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D107" s="17" t="s">
@@ -5206,7 +5200,7 @@
         <v>117</v>
       </c>
       <c r="K107" s="13">
-        <v>1.9800000190734863</v>
+        <v>-1.9800000190734863</v>
       </c>
     </row>
     <row r="108">
@@ -5216,7 +5210,7 @@
       <c r="B108" s="10">
         <v>40931</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D108" s="16" t="s">
@@ -5251,7 +5245,7 @@
       <c r="B109" s="11">
         <v>41025</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="17" t="s">
@@ -5286,7 +5280,7 @@
       <c r="B110" s="10">
         <v>41258</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="16" t="s">
@@ -5311,7 +5305,7 @@
         <v>117</v>
       </c>
       <c r="K110" s="12">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5321,7 +5315,7 @@
       <c r="B111" s="11">
         <v>39863</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D111" s="17" t="s">
@@ -5356,7 +5350,7 @@
       <c r="B112" s="10">
         <v>40403</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="16" t="s">
@@ -5391,7 +5385,7 @@
       <c r="B113" s="11">
         <v>40444</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="17" t="s">
@@ -5426,7 +5420,7 @@
       <c r="B114" s="10">
         <v>40687</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D114" s="16" t="s">
@@ -5461,7 +5455,7 @@
       <c r="B115" s="11">
         <v>41271</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D115" s="17" t="s">
@@ -5496,7 +5490,7 @@
       <c r="B116" s="10">
         <v>41365</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D116" s="16" t="s">
@@ -5531,7 +5525,7 @@
       <c r="B117" s="11">
         <v>41459</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="17" t="s">
@@ -5566,7 +5560,7 @@
       <c r="B118" s="10">
         <v>39876</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D118" s="16" t="s">
@@ -5601,7 +5595,7 @@
       <c r="B119" s="11">
         <v>39970</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D119" s="17" t="s">
@@ -5636,7 +5630,7 @@
       <c r="B120" s="10">
         <v>40064</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="16" t="s">
@@ -5671,7 +5665,7 @@
       <c r="B121" s="11">
         <v>40297</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -5706,7 +5700,7 @@
       <c r="B122" s="10">
         <v>40837</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D122" s="16" t="s">
@@ -5741,7 +5735,7 @@
       <c r="B123" s="11">
         <v>40878</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>126</v>
       </c>
       <c r="D123" s="17" t="s">
@@ -5776,7 +5770,7 @@
       <c r="B124" s="10">
         <v>41121</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D124" s="16" t="s">
@@ -5811,7 +5805,7 @@
       <c r="B125" s="11">
         <v>40310</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D125" s="17" t="s">
@@ -5846,7 +5840,7 @@
       <c r="B126" s="10">
         <v>40404</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D126" s="16" t="s">
@@ -5881,7 +5875,7 @@
       <c r="B127" s="11">
         <v>40498</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="17" t="s">
@@ -5916,7 +5910,7 @@
       <c r="B128" s="10">
         <v>40731</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="16" t="s">
@@ -5951,7 +5945,7 @@
       <c r="B129" s="11">
         <v>41271</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D129" s="17" t="s">
@@ -5986,7 +5980,7 @@
       <c r="B130" s="10">
         <v>41312</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D130" s="16" t="s">
@@ -6021,7 +6015,7 @@
       <c r="B131" s="11">
         <v>41555</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="17" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="17" t="s">
@@ -6056,7 +6050,7 @@
       <c r="B132" s="10">
         <v>39876</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D132" s="16" t="s">
@@ -6091,7 +6085,7 @@
       <c r="B133" s="11">
         <v>39917</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D133" s="17" t="s">
@@ -6126,7 +6120,7 @@
       <c r="B134" s="10">
         <v>40160</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="16" t="s">
@@ -6161,7 +6155,7 @@
       <c r="B135" s="11">
         <v>40744</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="17" t="s">
@@ -6196,7 +6190,7 @@
       <c r="B136" s="10">
         <v>40838</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D136" s="16" t="s">
@@ -6231,7 +6225,7 @@
       <c r="B137" s="11">
         <v>40932</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="17" t="s">
         <v>140</v>
       </c>
       <c r="D137" s="17" t="s">
@@ -6266,7 +6260,7 @@
       <c r="B138" s="10">
         <v>41165</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D138" s="16" t="s">
@@ -6301,7 +6295,7 @@
       <c r="B139" s="11">
         <v>40310</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D139" s="17" t="s">
@@ -6336,7 +6330,7 @@
       <c r="B140" s="10">
         <v>40351</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D140" s="16" t="s">
@@ -6371,7 +6365,7 @@
       <c r="B141" s="11">
         <v>40594</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D141" s="17" t="s">
@@ -6406,7 +6400,7 @@
       <c r="B142" s="10">
         <v>41178</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D142" s="16" t="s">
@@ -6441,7 +6435,7 @@
       <c r="B143" s="11">
         <v>41272</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D143" s="17" t="s">
@@ -6476,7 +6470,7 @@
       <c r="B144" s="10">
         <v>41366</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D144" s="16" t="s">
@@ -6511,7 +6505,7 @@
       <c r="B145" s="11">
         <v>41599</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="17" t="s">
@@ -6546,7 +6540,7 @@
       <c r="B146" s="10">
         <v>39877</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D146" s="16" t="s">
@@ -6581,7 +6575,7 @@
       <c r="B147" s="11">
         <v>39971</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D147" s="17" t="s">
@@ -6616,7 +6610,7 @@
       <c r="B148" s="10">
         <v>40204</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D148" s="16" t="s">
@@ -6651,7 +6645,7 @@
       <c r="B149" s="11">
         <v>40744</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D149" s="17" t="s">
@@ -6686,7 +6680,7 @@
       <c r="B150" s="10">
         <v>40785</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="16" t="s">
@@ -6721,7 +6715,7 @@
       <c r="B151" s="11">
         <v>41028</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C151" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D151" s="17" t="s">
@@ -6756,7 +6750,7 @@
       <c r="B152" s="10">
         <v>41612</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D152" s="16" t="s">
@@ -6791,7 +6785,7 @@
       <c r="B153" s="11">
         <v>40217</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D153" s="17" t="s">
@@ -6826,7 +6820,7 @@
       <c r="B154" s="10">
         <v>40311</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D154" s="16" t="s">
@@ -6861,7 +6855,7 @@
       <c r="B155" s="11">
         <v>40405</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D155" s="17" t="s">
@@ -6896,7 +6890,7 @@
       <c r="B156" s="10">
         <v>40638</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D156" s="16" t="s">
@@ -6931,7 +6925,7 @@
       <c r="B157" s="11">
         <v>41178</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="17" t="s">
@@ -6966,7 +6960,7 @@
       <c r="B158" s="10">
         <v>41219</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D158" s="16" t="s">
@@ -7001,7 +6995,7 @@
       <c r="B159" s="11">
         <v>41462</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D159" s="17" t="s">
@@ -7036,7 +7030,7 @@
       <c r="B160" s="10">
         <v>39824</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D160" s="16" t="s">
@@ -7071,7 +7065,7 @@
       <c r="B161" s="11">
         <v>40067</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D161" s="17" t="s">
@@ -7106,7 +7100,7 @@
       <c r="B162" s="10">
         <v>40651</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D162" s="16" t="s">
@@ -7141,7 +7135,7 @@
       <c r="B163" s="11">
         <v>40745</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D163" s="17" t="s">
@@ -7176,7 +7170,7 @@
       <c r="B164" s="10">
         <v>40839</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D164" s="16" t="s">
@@ -7211,7 +7205,7 @@
       <c r="B165" s="11">
         <v>41072</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D165" s="17" t="s">
@@ -7246,7 +7240,7 @@
       <c r="B166" s="10">
         <v>41612</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D166" s="16" t="s">
@@ -7281,7 +7275,7 @@
       <c r="B167" s="11">
         <v>40217</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D167" s="17" t="s">
@@ -7316,7 +7310,7 @@
       <c r="B168" s="10">
         <v>40258</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D168" s="16" t="s">
@@ -7351,7 +7345,7 @@
       <c r="B169" s="11">
         <v>40501</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D169" s="17" t="s">
@@ -7386,7 +7380,7 @@
       <c r="B170" s="10">
         <v>41085</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D170" s="16" t="s">
@@ -7421,7 +7415,7 @@
       <c r="B171" s="11">
         <v>41179</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D171" s="17" t="s">
@@ -7456,7 +7450,7 @@
       <c r="B172" s="10">
         <v>41273</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D172" s="16" t="s">
@@ -7491,7 +7485,7 @@
       <c r="B173" s="11">
         <v>41506</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D173" s="17" t="s">
@@ -7526,7 +7520,7 @@
       <c r="B174" s="10">
         <v>39878</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D174" s="16" t="s">
@@ -7561,7 +7555,7 @@
       <c r="B175" s="11">
         <v>40111</v>
       </c>
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D175" s="17" t="s">
@@ -7596,7 +7590,7 @@
       <c r="B176" s="10">
         <v>40651</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D176" s="16" t="s">
@@ -7631,7 +7625,7 @@
       <c r="B177" s="11">
         <v>40692</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D177" s="17" t="s">
@@ -7666,7 +7660,7 @@
       <c r="B178" s="10">
         <v>40935</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D178" s="16" t="s">
@@ -7701,7 +7695,7 @@
       <c r="B179" s="11">
         <v>41519</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C179" s="17" t="s">
         <v>179</v>
       </c>
       <c r="D179" s="17" t="s">
@@ -7736,7 +7730,7 @@
       <c r="B180" s="10">
         <v>41613</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D180" s="16" t="s">
@@ -7771,7 +7765,7 @@
       <c r="B181" s="11">
         <v>40124</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D181" s="17" t="s">
@@ -7806,7 +7800,7 @@
       <c r="B182" s="10">
         <v>40218</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D182" s="16" t="s">
@@ -7841,7 +7835,7 @@
       <c r="B183" s="11">
         <v>40312</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D183" s="17" t="s">
@@ -7876,7 +7870,7 @@
       <c r="B184" s="10">
         <v>40545</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D184" s="16" t="s">
@@ -7911,7 +7905,7 @@
       <c r="B185" s="11">
         <v>41085</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D185" s="17" t="s">
@@ -7946,7 +7940,7 @@
       <c r="B186" s="10">
         <v>41126</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D186" s="16" t="s">
@@ -7981,7 +7975,7 @@
       <c r="B187" s="11">
         <v>41369</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D187" s="17" t="s">
@@ -8016,7 +8010,7 @@
       <c r="B188" s="10">
         <v>39974</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D188" s="16" t="s">
@@ -8051,7 +8045,7 @@
       <c r="B189" s="11">
         <v>40558</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C189" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D189" s="17" t="s">
@@ -8086,7 +8080,7 @@
       <c r="B190" s="10">
         <v>40652</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D190" s="16" t="s">
@@ -8121,7 +8115,7 @@
       <c r="B191" s="11">
         <v>40746</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D191" s="17" t="s">
@@ -8156,7 +8150,7 @@
       <c r="B192" s="10">
         <v>40979</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D192" s="16" t="s">
@@ -8191,7 +8185,7 @@
       <c r="B193" s="11">
         <v>41519</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C193" s="17" t="s">
         <v>193</v>
       </c>
       <c r="D193" s="17" t="s">
@@ -8226,7 +8220,7 @@
       <c r="B194" s="10">
         <v>41560</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D194" s="16" t="s">
@@ -8261,7 +8255,7 @@
       <c r="B195" s="11">
         <v>40124</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D195" s="17" t="s">
@@ -8296,7 +8290,7 @@
       <c r="B196" s="10">
         <v>40165</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D196" s="16" t="s">
@@ -8331,7 +8325,7 @@
       <c r="B197" s="11">
         <v>40408</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D197" s="17" t="s">
@@ -8366,7 +8360,7 @@
       <c r="B198" s="10">
         <v>40992</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D198" s="16" t="s">
@@ -8401,7 +8395,7 @@
       <c r="B199" s="11">
         <v>41086</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D199" s="17" t="s">
@@ -8436,7 +8430,7 @@
       <c r="B200" s="10">
         <v>41180</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D200" s="16" t="s">
@@ -8471,7 +8465,7 @@
       <c r="B201" s="11">
         <v>41413</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D201" s="17" t="s">
@@ -8506,7 +8500,7 @@
       <c r="B202" s="10">
         <v>40018</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D202" s="16" t="s">
@@ -8541,7 +8535,7 @@
       <c r="B203" s="11">
         <v>40558</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D203" s="17" t="s">
@@ -8576,7 +8570,7 @@
       <c r="B204" s="10">
         <v>40599</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D204" s="16" t="s">
@@ -8611,7 +8605,7 @@
       <c r="B205" s="11">
         <v>40842</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D205" s="17" t="s">
@@ -8646,7 +8640,7 @@
       <c r="B206" s="10">
         <v>41426</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D206" s="16" t="s">
@@ -8681,7 +8675,7 @@
       <c r="B207" s="11">
         <v>41520</v>
       </c>
-      <c r="C207" s="19" t="s">
+      <c r="C207" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D207" s="17" t="s">
@@ -8716,7 +8710,7 @@
       <c r="B208" s="10">
         <v>41614</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D208" s="16" t="s">
@@ -8751,7 +8745,7 @@
       <c r="B209" s="11">
         <v>40031</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C209" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D209" s="17" t="s">
@@ -8786,7 +8780,7 @@
       <c r="B210" s="10">
         <v>40125</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D210" s="16" t="s">
@@ -8821,7 +8815,7 @@
       <c r="B211" s="11">
         <v>40219</v>
       </c>
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D211" s="17" t="s">
@@ -8856,7 +8850,7 @@
       <c r="B212" s="10">
         <v>40452</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D212" s="16" t="s">
@@ -8891,7 +8885,7 @@
       <c r="B213" s="11">
         <v>40992</v>
       </c>
-      <c r="C213" s="19" t="s">
+      <c r="C213" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D213" s="17" t="s">
@@ -8926,7 +8920,7 @@
       <c r="B214" s="10">
         <v>41033</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D214" s="16" t="s">
@@ -8961,7 +8955,7 @@
       <c r="B215" s="11">
         <v>41276</v>
       </c>
-      <c r="C215" s="19" t="s">
+      <c r="C215" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D215" s="17" t="s">
@@ -8996,7 +8990,7 @@
       <c r="B216" s="10">
         <v>39881</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D216" s="16" t="s">
@@ -9031,7 +9025,7 @@
       <c r="B217" s="11">
         <v>40465</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C217" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D217" s="17" t="s">
@@ -9066,7 +9060,7 @@
       <c r="B218" s="10">
         <v>40559</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D218" s="16" t="s">
@@ -9101,7 +9095,7 @@
       <c r="B219" s="11">
         <v>40653</v>
       </c>
-      <c r="C219" s="19" t="s">
+      <c r="C219" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D219" s="17" t="s">
@@ -9136,7 +9130,7 @@
       <c r="B220" s="10">
         <v>40886</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D220" s="16" t="s">
@@ -9171,7 +9165,7 @@
       <c r="B221" s="11">
         <v>41426</v>
       </c>
-      <c r="C221" s="19" t="s">
+      <c r="C221" s="17" t="s">
         <v>220</v>
       </c>
       <c r="D221" s="17" t="s">
@@ -9206,7 +9200,7 @@
       <c r="B222" s="10">
         <v>41467</v>
       </c>
-      <c r="C222" s="18" t="s">
+      <c r="C222" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D222" s="16" t="s">
@@ -9241,7 +9235,7 @@
       <c r="B223" s="11">
         <v>40031</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C223" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D223" s="17" t="s">
@@ -9276,7 +9270,7 @@
       <c r="B224" s="10">
         <v>40072</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D224" s="16" t="s">
@@ -9311,7 +9305,7 @@
       <c r="B225" s="11">
         <v>40315</v>
       </c>
-      <c r="C225" s="19" t="s">
+      <c r="C225" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D225" s="17" t="s">
@@ -9346,7 +9340,7 @@
       <c r="B226" s="10">
         <v>40899</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D226" s="16" t="s">
@@ -9381,7 +9375,7 @@
       <c r="B227" s="11">
         <v>40993</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D227" s="17" t="s">
@@ -9416,7 +9410,7 @@
       <c r="B228" s="10">
         <v>41087</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D228" s="16" t="s">
@@ -9451,7 +9445,7 @@
       <c r="B229" s="11">
         <v>41320</v>
       </c>
-      <c r="C229" s="19" t="s">
+      <c r="C229" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D229" s="17" t="s">
@@ -9486,7 +9480,7 @@
       <c r="B230" s="10">
         <v>39925</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D230" s="16" t="s">
@@ -9521,7 +9515,7 @@
       <c r="B231" s="11">
         <v>40465</v>
       </c>
-      <c r="C231" s="19" t="s">
+      <c r="C231" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D231" s="17" t="s">
@@ -9556,7 +9550,7 @@
       <c r="B232" s="10">
         <v>40506</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D232" s="16" t="s">
@@ -9591,7 +9585,7 @@
       <c r="B233" s="11">
         <v>40749</v>
       </c>
-      <c r="C233" s="19" t="s">
+      <c r="C233" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D233" s="17" t="s">
@@ -9626,7 +9620,7 @@
       <c r="B234" s="10">
         <v>41333</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D234" s="16" t="s">
@@ -9661,7 +9655,7 @@
       <c r="B235" s="11">
         <v>41427</v>
       </c>
-      <c r="C235" s="19" t="s">
+      <c r="C235" s="17" t="s">
         <v>234</v>
       </c>
       <c r="D235" s="17" t="s">
@@ -9696,7 +9690,7 @@
       <c r="B236" s="10">
         <v>41521</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D236" s="16" t="s">
@@ -9731,7 +9725,7 @@
       <c r="B237" s="11">
         <v>39938</v>
       </c>
-      <c r="C237" s="19" t="s">
+      <c r="C237" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D237" s="17" t="s">
@@ -9766,7 +9760,7 @@
       <c r="B238" s="10">
         <v>40032</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D238" s="16" t="s">
@@ -9801,7 +9795,7 @@
       <c r="B239" s="11">
         <v>40126</v>
       </c>
-      <c r="C239" s="19" t="s">
+      <c r="C239" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D239" s="17" t="s">
@@ -9836,7 +9830,7 @@
       <c r="B240" s="10">
         <v>40359</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D240" s="16" t="s">
@@ -9871,7 +9865,7 @@
       <c r="B241" s="11">
         <v>40899</v>
       </c>
-      <c r="C241" s="19" t="s">
+      <c r="C241" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D241" s="17" t="s">
@@ -9906,7 +9900,7 @@
       <c r="B242" s="10">
         <v>40940</v>
       </c>
-      <c r="C242" s="18" t="s">
+      <c r="C242" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D242" s="16" t="s">
@@ -9941,7 +9935,7 @@
       <c r="B243" s="11">
         <v>41183</v>
       </c>
-      <c r="C243" s="19" t="s">
+      <c r="C243" s="17" t="s">
         <v>241</v>
       </c>
       <c r="D243" s="17" t="s">
@@ -9976,7 +9970,7 @@
       <c r="B244" s="10">
         <v>40372</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D244" s="16" t="s">
@@ -10011,7 +10005,7 @@
       <c r="B245" s="11">
         <v>40466</v>
       </c>
-      <c r="C245" s="19" t="s">
+      <c r="C245" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D245" s="17" t="s">
@@ -10046,7 +10040,7 @@
       <c r="B246" s="10">
         <v>40560</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="16" t="s">
@@ -10081,7 +10075,7 @@
       <c r="B247" s="11">
         <v>40793</v>
       </c>
-      <c r="C247" s="19" t="s">
+      <c r="C247" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D247" s="17" t="s">
@@ -10116,7 +10110,7 @@
       <c r="B248" s="10">
         <v>41333</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D248" s="16" t="s">
@@ -10151,7 +10145,7 @@
       <c r="B249" s="11">
         <v>41374</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="17" t="s">
         <v>247</v>
       </c>
       <c r="D249" s="17" t="s">
@@ -10186,7 +10180,7 @@
       <c r="B250" s="10">
         <v>41617</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D250" s="16" t="s">
@@ -10221,7 +10215,7 @@
       <c r="B251" s="11">
         <v>39938</v>
       </c>
-      <c r="C251" s="19" t="s">
+      <c r="C251" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D251" s="17" t="s">
@@ -10256,7 +10250,7 @@
       <c r="B252" s="10">
         <v>39979</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D252" s="16" t="s">
@@ -10291,7 +10285,7 @@
       <c r="B253" s="11">
         <v>40222</v>
       </c>
-      <c r="C253" s="19" t="s">
+      <c r="C253" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D253" s="17" t="s">
@@ -10326,7 +10320,7 @@
       <c r="B254" s="10">
         <v>40806</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D254" s="16" t="s">
@@ -10361,7 +10355,7 @@
       <c r="B255" s="11">
         <v>40900</v>
       </c>
-      <c r="C255" s="19" t="s">
+      <c r="C255" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D255" s="17" t="s">
@@ -10396,7 +10390,7 @@
       <c r="B256" s="10">
         <v>40994</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D256" s="16" t="s">
@@ -10431,7 +10425,7 @@
       <c r="B257" s="11">
         <v>41227</v>
       </c>
-      <c r="C257" s="19" t="s">
+      <c r="C257" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D257" s="17" t="s">
@@ -10466,7 +10460,7 @@
       <c r="B258" s="10">
         <v>39832</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D258" s="16" t="s">
@@ -10501,7 +10495,7 @@
       <c r="B259" s="11">
         <v>40372</v>
       </c>
-      <c r="C259" s="19" t="s">
+      <c r="C259" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D259" s="17" t="s">
@@ -10536,7 +10530,7 @@
       <c r="B260" s="10">
         <v>40413</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D260" s="16" t="s">
@@ -10571,7 +10565,7 @@
       <c r="B261" s="11">
         <v>40656</v>
       </c>
-      <c r="C261" s="19" t="s">
+      <c r="C261" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D261" s="17" t="s">
@@ -10606,7 +10600,7 @@
       <c r="B262" s="10">
         <v>41240</v>
       </c>
-      <c r="C262" s="18" t="s">
+      <c r="C262" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D262" s="16" t="s">
@@ -10641,7 +10635,7 @@
       <c r="B263" s="11">
         <v>41334</v>
       </c>
-      <c r="C263" s="19" t="s">
+      <c r="C263" s="17" t="s">
         <v>258</v>
       </c>
       <c r="D263" s="17" t="s">
@@ -10676,7 +10670,7 @@
       <c r="B264" s="10">
         <v>41428</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D264" s="16" t="s">
@@ -10711,7 +10705,7 @@
       <c r="B265" s="11">
         <v>39845</v>
       </c>
-      <c r="C265" s="19" t="s">
+      <c r="C265" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D265" s="17" t="s">
@@ -10746,7 +10740,7 @@
       <c r="B266" s="10">
         <v>39939</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D266" s="16" t="s">
@@ -10781,7 +10775,7 @@
       <c r="B267" s="11">
         <v>40033</v>
       </c>
-      <c r="C267" s="19" t="s">
+      <c r="C267" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D267" s="17" t="s">
@@ -10816,7 +10810,7 @@
       <c r="B268" s="10">
         <v>40266</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D268" s="16" t="s">
@@ -10851,7 +10845,7 @@
       <c r="B269" s="11">
         <v>40806</v>
       </c>
-      <c r="C269" s="19" t="s">
+      <c r="C269" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D269" s="17" t="s">
@@ -10886,7 +10880,7 @@
       <c r="B270" s="10">
         <v>40847</v>
       </c>
-      <c r="C270" s="18" t="s">
+      <c r="C270" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D270" s="16" t="s">
@@ -10921,7 +10915,7 @@
       <c r="B271" s="11">
         <v>41090</v>
       </c>
-      <c r="C271" s="19" t="s">
+      <c r="C271" s="17" t="s">
         <v>264</v>
       </c>
       <c r="D271" s="17" t="s">
@@ -10956,7 +10950,7 @@
       <c r="B272" s="10">
         <v>40279</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D272" s="16" t="s">
@@ -10991,7 +10985,7 @@
       <c r="B273" s="11">
         <v>40373</v>
       </c>
-      <c r="C273" s="19" t="s">
+      <c r="C273" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D273" s="17" t="s">
@@ -11026,7 +11020,7 @@
       <c r="B274" s="10">
         <v>40467</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D274" s="16" t="s">
@@ -11061,7 +11055,7 @@
       <c r="B275" s="11">
         <v>40700</v>
       </c>
-      <c r="C275" s="19" t="s">
+      <c r="C275" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D275" s="17" t="s">
@@ -11096,7 +11090,7 @@
       <c r="B276" s="10">
         <v>41240</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D276" s="16" t="s">
@@ -11131,7 +11125,7 @@
       <c r="B277" s="11">
         <v>41281</v>
       </c>
-      <c r="C277" s="19" t="s">
+      <c r="C277" s="17" t="s">
         <v>269</v>
       </c>
       <c r="D277" s="17" t="s">
@@ -11166,7 +11160,7 @@
       <c r="B278" s="10">
         <v>41524</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D278" s="16" t="s">
@@ -11201,7 +11195,7 @@
       <c r="B279" s="11">
         <v>39845</v>
       </c>
-      <c r="C279" s="19" t="s">
+      <c r="C279" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D279" s="17" t="s">
@@ -11236,7 +11230,7 @@
       <c r="B280" s="10">
         <v>39886</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D280" s="16" t="s">
@@ -11271,7 +11265,7 @@
       <c r="B281" s="11">
         <v>40129</v>
       </c>
-      <c r="C281" s="19" t="s">
+      <c r="C281" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D281" s="17" t="s">
@@ -11306,7 +11300,7 @@
       <c r="B282" s="10">
         <v>40713</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D282" s="16" t="s">
@@ -11341,7 +11335,7 @@
       <c r="B283" s="11">
         <v>40807</v>
       </c>
-      <c r="C283" s="19" t="s">
+      <c r="C283" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D283" s="17" t="s">
@@ -11376,7 +11370,7 @@
       <c r="B284" s="10">
         <v>40901</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D284" s="16" t="s">
@@ -11411,7 +11405,7 @@
       <c r="B285" s="11">
         <v>41134</v>
       </c>
-      <c r="C285" s="19" t="s">
+      <c r="C285" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D285" s="17" t="s">
@@ -11446,7 +11440,7 @@
       <c r="B286" s="10">
         <v>40279</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D286" s="16" t="s">
@@ -11481,7 +11475,7 @@
       <c r="B287" s="11">
         <v>40320</v>
       </c>
-      <c r="C287" s="19" t="s">
+      <c r="C287" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D287" s="17" t="s">
@@ -11516,7 +11510,7 @@
       <c r="B288" s="10">
         <v>40563</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="C288" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D288" s="16" t="s">
@@ -11551,7 +11545,7 @@
       <c r="B289" s="11">
         <v>41147</v>
       </c>
-      <c r="C289" s="19" t="s">
+      <c r="C289" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D289" s="17" t="s">
@@ -11586,7 +11580,7 @@
       <c r="B290" s="10">
         <v>41241</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="C290" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D290" s="16" t="s">
@@ -11621,7 +11615,7 @@
       <c r="B291" s="11">
         <v>41335</v>
       </c>
-      <c r="C291" s="19" t="s">
+      <c r="C291" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D291" s="17" t="s">
@@ -11656,7 +11650,7 @@
       <c r="B292" s="10">
         <v>41568</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C292" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D292" s="16" t="s">
@@ -11691,7 +11685,7 @@
       <c r="B293" s="11">
         <v>39846</v>
       </c>
-      <c r="C293" s="19" t="s">
+      <c r="C293" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D293" s="17" t="s">
@@ -11726,7 +11720,7 @@
       <c r="B294" s="10">
         <v>39940</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="C294" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D294" s="16" t="s">
@@ -11761,7 +11755,7 @@
       <c r="B295" s="11">
         <v>40173</v>
       </c>
-      <c r="C295" s="19" t="s">
+      <c r="C295" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D295" s="17" t="s">
@@ -11796,7 +11790,7 @@
       <c r="B296" s="10">
         <v>40713</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="C296" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D296" s="16" t="s">
@@ -11831,7 +11825,7 @@
       <c r="B297" s="11">
         <v>40754</v>
       </c>
-      <c r="C297" s="19" t="s">
+      <c r="C297" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D297" s="17" t="s">
@@ -11866,7 +11860,7 @@
       <c r="B298" s="10">
         <v>40997</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="C298" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D298" s="16" t="s">
@@ -11901,7 +11895,7 @@
       <c r="B299" s="11">
         <v>41581</v>
       </c>
-      <c r="C299" s="19" t="s">
+      <c r="C299" s="17" t="s">
         <v>287</v>
       </c>
       <c r="D299" s="17" t="s">
@@ -11936,7 +11930,7 @@
       <c r="B300" s="10">
         <v>40186</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D300" s="16" t="s">
@@ -11971,7 +11965,7 @@
       <c r="B301" s="11">
         <v>40280</v>
       </c>
-      <c r="C301" s="19" t="s">
+      <c r="C301" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D301" s="17" t="s">
@@ -12006,7 +12000,7 @@
       <c r="B302" s="10">
         <v>40374</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D302" s="16" t="s">
@@ -12041,7 +12035,7 @@
       <c r="B303" s="11">
         <v>40607</v>
       </c>
-      <c r="C303" s="19" t="s">
+      <c r="C303" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D303" s="17" t="s">
@@ -12076,7 +12070,7 @@
       <c r="B304" s="10">
         <v>41147</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D304" s="16" t="s">
@@ -12111,7 +12105,7 @@
       <c r="B305" s="11">
         <v>41188</v>
       </c>
-      <c r="C305" s="19" t="s">
+      <c r="C305" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D305" s="17" t="s">
@@ -12146,7 +12140,7 @@
       <c r="B306" s="10">
         <v>41431</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="16" t="s">
         <v>293</v>
       </c>
       <c r="D306" s="16" t="s">
@@ -12181,7 +12175,7 @@
       <c r="B307" s="11">
         <v>40036</v>
       </c>
-      <c r="C307" s="19" t="s">
+      <c r="C307" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D307" s="17" t="s">
@@ -12216,7 +12210,7 @@
       <c r="B308" s="10">
         <v>40620</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D308" s="16" t="s">
@@ -12251,7 +12245,7 @@
       <c r="B309" s="11">
         <v>40714</v>
       </c>
-      <c r="C309" s="19" t="s">
+      <c r="C309" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D309" s="17" t="s">
@@ -12286,7 +12280,7 @@
       <c r="B310" s="10">
         <v>40808</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D310" s="16" t="s">
@@ -12321,7 +12315,7 @@
       <c r="B311" s="11">
         <v>41041</v>
       </c>
-      <c r="C311" s="19" t="s">
+      <c r="C311" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D311" s="17" t="s">
@@ -12356,7 +12350,7 @@
       <c r="B312" s="10">
         <v>41581</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D312" s="16" t="s">
@@ -12391,7 +12385,7 @@
       <c r="B313" s="11">
         <v>41622</v>
       </c>
-      <c r="C313" s="19" t="s">
+      <c r="C313" s="17" t="s">
         <v>299</v>
       </c>
       <c r="D313" s="17" t="s">
@@ -12426,7 +12420,7 @@
       <c r="B314" s="10">
         <v>40186</v>
       </c>
-      <c r="C314" s="18" t="s">
+      <c r="C314" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D314" s="16" t="s">
@@ -12461,7 +12455,7 @@
       <c r="B315" s="11">
         <v>40227</v>
       </c>
-      <c r="C315" s="19" t="s">
+      <c r="C315" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D315" s="17" t="s">
@@ -12496,7 +12490,7 @@
       <c r="B316" s="10">
         <v>40470</v>
       </c>
-      <c r="C316" s="18" t="s">
+      <c r="C316" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D316" s="16" t="s">
@@ -12531,7 +12525,7 @@
       <c r="B317" s="11">
         <v>41054</v>
       </c>
-      <c r="C317" s="19" t="s">
+      <c r="C317" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D317" s="17" t="s">
@@ -12566,7 +12560,7 @@
       <c r="B318" s="10">
         <v>41148</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D318" s="16" t="s">
@@ -12601,7 +12595,7 @@
       <c r="B319" s="11">
         <v>41242</v>
       </c>
-      <c r="C319" s="19" t="s">
+      <c r="C319" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D319" s="17" t="s">
@@ -12636,7 +12630,7 @@
       <c r="B320" s="10">
         <v>41475</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C320" s="16" t="s">
         <v>306</v>
       </c>
       <c r="D320" s="16" t="s">
@@ -12671,7 +12665,7 @@
       <c r="B321" s="11">
         <v>39847</v>
       </c>
-      <c r="C321" s="19" t="s">
+      <c r="C321" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D321" s="17" t="s">
@@ -12706,7 +12700,7 @@
       <c r="B322" s="10">
         <v>40080</v>
       </c>
-      <c r="C322" s="18" t="s">
+      <c r="C322" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D322" s="16" t="s">
@@ -12741,7 +12735,7 @@
       <c r="B323" s="11">
         <v>40620</v>
       </c>
-      <c r="C323" s="19" t="s">
+      <c r="C323" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D323" s="17" t="s">
@@ -12776,7 +12770,7 @@
       <c r="B324" s="10">
         <v>40661</v>
       </c>
-      <c r="C324" s="18" t="s">
+      <c r="C324" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D324" s="16" t="s">
@@ -12811,7 +12805,7 @@
       <c r="B325" s="11">
         <v>40904</v>
       </c>
-      <c r="C325" s="19" t="s">
+      <c r="C325" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D325" s="17" t="s">
@@ -12846,7 +12840,7 @@
       <c r="B326" s="10">
         <v>41488</v>
       </c>
-      <c r="C326" s="18" t="s">
+      <c r="C326" s="16" t="s">
         <v>312</v>
       </c>
       <c r="D326" s="16" t="s">
@@ -12881,7 +12875,7 @@
       <c r="B327" s="11">
         <v>41582</v>
       </c>
-      <c r="C327" s="19" t="s">
+      <c r="C327" s="17" t="s">
         <v>312</v>
       </c>
       <c r="D327" s="17" t="s">
@@ -12916,7 +12910,7 @@
       <c r="B328" s="10">
         <v>40093</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="C328" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D328" s="16" t="s">
@@ -12951,7 +12945,7 @@
       <c r="B329" s="11">
         <v>40187</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="C329" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D329" s="17" t="s">
@@ -12986,7 +12980,7 @@
       <c r="B330" s="10">
         <v>40281</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="C330" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D330" s="16" t="s">
@@ -13021,7 +13015,7 @@
       <c r="B331" s="11">
         <v>40514</v>
       </c>
-      <c r="C331" s="19" t="s">
+      <c r="C331" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D331" s="17" t="s">
@@ -13056,7 +13050,7 @@
       <c r="B332" s="10">
         <v>41054</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D332" s="16" t="s">
@@ -13091,7 +13085,7 @@
       <c r="B333" s="11">
         <v>41095</v>
       </c>
-      <c r="C333" s="19" t="s">
+      <c r="C333" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D333" s="17" t="s">
@@ -13126,7 +13120,7 @@
       <c r="B334" s="10">
         <v>41338</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="C334" s="16" t="s">
         <v>318</v>
       </c>
       <c r="D334" s="16" t="s">
@@ -13161,7 +13155,7 @@
       <c r="B335" s="11">
         <v>39943</v>
       </c>
-      <c r="C335" s="19" t="s">
+      <c r="C335" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D335" s="17" t="s">
@@ -13196,7 +13190,7 @@
       <c r="B336" s="10">
         <v>40527</v>
       </c>
-      <c r="C336" s="18" t="s">
+      <c r="C336" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D336" s="16" t="s">
@@ -13231,7 +13225,7 @@
       <c r="B337" s="11">
         <v>40621</v>
       </c>
-      <c r="C337" s="19" t="s">
+      <c r="C337" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D337" s="17" t="s">
@@ -13266,7 +13260,7 @@
       <c r="B338" s="10">
         <v>40715</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="C338" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D338" s="16" t="s">
@@ -13301,7 +13295,7 @@
       <c r="B339" s="11">
         <v>40948</v>
       </c>
-      <c r="C339" s="19" t="s">
+      <c r="C339" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D339" s="17" t="s">
@@ -13336,7 +13330,7 @@
       <c r="B340" s="10">
         <v>41488</v>
       </c>
-      <c r="C340" s="18" t="s">
+      <c r="C340" s="16" t="s">
         <v>326</v>
       </c>
       <c r="D340" s="16" t="s">
@@ -13371,7 +13365,7 @@
       <c r="B341" s="11">
         <v>41529</v>
       </c>
-      <c r="C341" s="19" t="s">
+      <c r="C341" s="17" t="s">
         <v>326</v>
       </c>
       <c r="D341" s="17" t="s">
@@ -13406,7 +13400,7 @@
       <c r="B342" s="10">
         <v>40093</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="C342" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D342" s="16" t="s">
@@ -13441,7 +13435,7 @@
       <c r="B343" s="11">
         <v>40134</v>
       </c>
-      <c r="C343" s="19" t="s">
+      <c r="C343" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D343" s="17" t="s">
@@ -13476,7 +13470,7 @@
       <c r="B344" s="10">
         <v>40377</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D344" s="16" t="s">
@@ -13511,7 +13505,7 @@
       <c r="B345" s="11">
         <v>40961</v>
       </c>
-      <c r="C345" s="19" t="s">
+      <c r="C345" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D345" s="17" t="s">
@@ -13546,7 +13540,7 @@
       <c r="B346" s="10">
         <v>41055</v>
       </c>
-      <c r="C346" s="18" t="s">
+      <c r="C346" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D346" s="16" t="s">
@@ -13581,7 +13575,7 @@
       <c r="B347" s="11">
         <v>41149</v>
       </c>
-      <c r="C347" s="19" t="s">
+      <c r="C347" s="17" t="s">
         <v>334</v>
       </c>
       <c r="D347" s="17" t="s">
@@ -13616,7 +13610,7 @@
       <c r="B348" s="10">
         <v>41382</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="16" t="s">
         <v>334</v>
       </c>
       <c r="D348" s="16" t="s">
@@ -13651,7 +13645,7 @@
       <c r="B349" s="11">
         <v>39987</v>
       </c>
-      <c r="C349" s="19" t="s">
+      <c r="C349" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D349" s="17" t="s">
@@ -13686,7 +13680,7 @@
       <c r="B350" s="10">
         <v>40527</v>
       </c>
-      <c r="C350" s="18" t="s">
+      <c r="C350" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D350" s="16" t="s">
@@ -13721,7 +13715,7 @@
       <c r="B351" s="11">
         <v>40568</v>
       </c>
-      <c r="C351" s="19" t="s">
+      <c r="C351" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D351" s="17" t="s">
@@ -13756,7 +13750,7 @@
       <c r="B352" s="10">
         <v>40811</v>
       </c>
-      <c r="C352" s="18" t="s">
+      <c r="C352" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D352" s="16" t="s">
@@ -13791,7 +13785,7 @@
       <c r="B353" s="11">
         <v>41395</v>
       </c>
-      <c r="C353" s="19" t="s">
+      <c r="C353" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D353" s="17" t="s">
@@ -13826,7 +13820,7 @@
       <c r="B354" s="10">
         <v>41489</v>
       </c>
-      <c r="C354" s="18" t="s">
+      <c r="C354" s="16" t="s">
         <v>341</v>
       </c>
       <c r="D354" s="16" t="s">
@@ -13861,7 +13855,7 @@
       <c r="B355" s="11">
         <v>41583</v>
       </c>
-      <c r="C355" s="19" t="s">
+      <c r="C355" s="17" t="s">
         <v>341</v>
       </c>
       <c r="D355" s="17" t="s">
@@ -13896,7 +13890,7 @@
       <c r="B356" s="10">
         <v>40000</v>
       </c>
-      <c r="C356" s="18" t="s">
+      <c r="C356" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D356" s="16" t="s">
@@ -13931,7 +13925,7 @@
       <c r="B357" s="11">
         <v>40094</v>
       </c>
-      <c r="C357" s="19" t="s">
+      <c r="C357" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D357" s="17" t="s">
@@ -13966,7 +13960,7 @@
       <c r="B358" s="10">
         <v>40188</v>
       </c>
-      <c r="C358" s="18" t="s">
+      <c r="C358" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D358" s="16" t="s">
@@ -14001,7 +13995,7 @@
       <c r="B359" s="11">
         <v>40421</v>
       </c>
-      <c r="C359" s="19" t="s">
+      <c r="C359" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D359" s="17" t="s">
@@ -14036,7 +14030,7 @@
       <c r="B360" s="10">
         <v>40961</v>
       </c>
-      <c r="C360" s="18" t="s">
+      <c r="C360" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D360" s="16" t="s">
@@ -14071,7 +14065,7 @@
       <c r="B361" s="11">
         <v>41002</v>
       </c>
-      <c r="C361" s="19" t="s">
+      <c r="C361" s="17" t="s">
         <v>348</v>
       </c>
       <c r="D361" s="17" t="s">
@@ -14106,7 +14100,7 @@
       <c r="B362" s="10">
         <v>41245</v>
       </c>
-      <c r="C362" s="18" t="s">
+      <c r="C362" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D362" s="16" t="s">
@@ -14141,7 +14135,7 @@
       <c r="B363" s="11">
         <v>39850</v>
       </c>
-      <c r="C363" s="19" t="s">
+      <c r="C363" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D363" s="17" t="s">
@@ -14176,7 +14170,7 @@
       <c r="B364" s="10">
         <v>40434</v>
       </c>
-      <c r="C364" s="18" t="s">
+      <c r="C364" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D364" s="16" t="s">
@@ -14211,7 +14205,7 @@
       <c r="B365" s="11">
         <v>40528</v>
       </c>
-      <c r="C365" s="19" t="s">
+      <c r="C365" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D365" s="17" t="s">
@@ -14246,7 +14240,7 @@
       <c r="B366" s="10">
         <v>40622</v>
       </c>
-      <c r="C366" s="18" t="s">
+      <c r="C366" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D366" s="16" t="s">
@@ -14281,7 +14275,7 @@
       <c r="B367" s="11">
         <v>40855</v>
       </c>
-      <c r="C367" s="19" t="s">
+      <c r="C367" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D367" s="17" t="s">
@@ -14316,7 +14310,7 @@
       <c r="B368" s="10">
         <v>41395</v>
       </c>
-      <c r="C368" s="18" t="s">
+      <c r="C368" s="16" t="s">
         <v>355</v>
       </c>
       <c r="D368" s="16" t="s">
@@ -14351,7 +14345,7 @@
       <c r="B369" s="11">
         <v>41436</v>
       </c>
-      <c r="C369" s="19" t="s">
+      <c r="C369" s="17" t="s">
         <v>355</v>
       </c>
       <c r="D369" s="17" t="s">
@@ -14386,7 +14380,7 @@
       <c r="B370" s="10">
         <v>40000</v>
       </c>
-      <c r="C370" s="18" t="s">
+      <c r="C370" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D370" s="16" t="s">
@@ -14421,7 +14415,7 @@
       <c r="B371" s="11">
         <v>40041</v>
       </c>
-      <c r="C371" s="19" t="s">
+      <c r="C371" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D371" s="17" t="s">
@@ -14456,7 +14450,7 @@
       <c r="B372" s="10">
         <v>40284</v>
       </c>
-      <c r="C372" s="18" t="s">
+      <c r="C372" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D372" s="16" t="s">
@@ -14491,7 +14485,7 @@
       <c r="B373" s="11">
         <v>40868</v>
       </c>
-      <c r="C373" s="19" t="s">
+      <c r="C373" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D373" s="17" t="s">
@@ -14526,7 +14520,7 @@
       <c r="B374" s="10">
         <v>40962</v>
       </c>
-      <c r="C374" s="18" t="s">
+      <c r="C374" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D374" s="16" t="s">
@@ -14561,7 +14555,7 @@
       <c r="B375" s="11">
         <v>41056</v>
       </c>
-      <c r="C375" s="19" t="s">
+      <c r="C375" s="17" t="s">
         <v>362</v>
       </c>
       <c r="D375" s="17" t="s">
@@ -14596,7 +14590,7 @@
       <c r="B376" s="10">
         <v>41289</v>
       </c>
-      <c r="C376" s="18" t="s">
+      <c r="C376" s="16" t="s">
         <v>362</v>
       </c>
       <c r="D376" s="16" t="s">
@@ -14631,7 +14625,7 @@
       <c r="B377" s="11">
         <v>39894</v>
       </c>
-      <c r="C377" s="19" t="s">
+      <c r="C377" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D377" s="17" t="s">
@@ -14666,7 +14660,7 @@
       <c r="B378" s="10">
         <v>40434</v>
       </c>
-      <c r="C378" s="18" t="s">
+      <c r="C378" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D378" s="16" t="s">
@@ -14701,7 +14695,7 @@
       <c r="B379" s="11">
         <v>40475</v>
       </c>
-      <c r="C379" s="19" t="s">
+      <c r="C379" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D379" s="17" t="s">
@@ -14736,7 +14730,7 @@
       <c r="B380" s="10">
         <v>40718</v>
       </c>
-      <c r="C380" s="18" t="s">
+      <c r="C380" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D380" s="16" t="s">
@@ -14771,7 +14765,7 @@
       <c r="B381" s="11">
         <v>41302</v>
       </c>
-      <c r="C381" s="19" t="s">
+      <c r="C381" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D381" s="17" t="s">
@@ -14806,7 +14800,7 @@
       <c r="B382" s="10">
         <v>41396</v>
       </c>
-      <c r="C382" s="18" t="s">
+      <c r="C382" s="16" t="s">
         <v>367</v>
       </c>
       <c r="D382" s="16" t="s">
@@ -14841,7 +14835,7 @@
       <c r="B383" s="11">
         <v>41490</v>
       </c>
-      <c r="C383" s="19" t="s">
+      <c r="C383" s="17" t="s">
         <v>367</v>
       </c>
       <c r="D383" s="17" t="s">
@@ -14876,7 +14870,7 @@
       <c r="B384" s="10">
         <v>39907</v>
       </c>
-      <c r="C384" s="18" t="s">
+      <c r="C384" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D384" s="16" t="s">
@@ -14911,7 +14905,7 @@
       <c r="B385" s="11">
         <v>40001</v>
       </c>
-      <c r="C385" s="19" t="s">
+      <c r="C385" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D385" s="17" t="s">
@@ -14946,7 +14940,7 @@
       <c r="B386" s="10">
         <v>40095</v>
       </c>
-      <c r="C386" s="18" t="s">
+      <c r="C386" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D386" s="16" t="s">
@@ -14981,7 +14975,7 @@
       <c r="B387" s="11">
         <v>40328</v>
       </c>
-      <c r="C387" s="19" t="s">
+      <c r="C387" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D387" s="17" t="s">
@@ -15016,7 +15010,7 @@
       <c r="B388" s="10">
         <v>40868</v>
       </c>
-      <c r="C388" s="18" t="s">
+      <c r="C388" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D388" s="16" t="s">
@@ -15051,7 +15045,7 @@
       <c r="B389" s="11">
         <v>40909</v>
       </c>
-      <c r="C389" s="19" t="s">
+      <c r="C389" s="17" t="s">
         <v>373</v>
       </c>
       <c r="D389" s="17" t="s">
@@ -15086,7 +15080,7 @@
       <c r="B390" s="10">
         <v>41152</v>
       </c>
-      <c r="C390" s="18" t="s">
+      <c r="C390" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D390" s="16" t="s">
@@ -15121,7 +15115,7 @@
       <c r="B391" s="11">
         <v>40341</v>
       </c>
-      <c r="C391" s="19" t="s">
+      <c r="C391" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D391" s="17" t="s">
@@ -15156,7 +15150,7 @@
       <c r="B392" s="10">
         <v>40435</v>
       </c>
-      <c r="C392" s="18" t="s">
+      <c r="C392" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D392" s="16" t="s">
@@ -15191,7 +15185,7 @@
       <c r="B393" s="11">
         <v>40529</v>
       </c>
-      <c r="C393" s="19" t="s">
+      <c r="C393" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D393" s="17" t="s">
@@ -15226,7 +15220,7 @@
       <c r="B394" s="10">
         <v>40762</v>
       </c>
-      <c r="C394" s="18" t="s">
+      <c r="C394" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D394" s="16" t="s">
@@ -15261,7 +15255,7 @@
       <c r="B395" s="11">
         <v>41302</v>
       </c>
-      <c r="C395" s="19" t="s">
+      <c r="C395" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D395" s="17" t="s">
@@ -15296,7 +15290,7 @@
       <c r="B396" s="10">
         <v>41343</v>
       </c>
-      <c r="C396" s="18" t="s">
+      <c r="C396" s="16" t="s">
         <v>381</v>
       </c>
       <c r="D396" s="16" t="s">
@@ -15331,7 +15325,7 @@
       <c r="B397" s="11">
         <v>41586</v>
       </c>
-      <c r="C397" s="19" t="s">
+      <c r="C397" s="17" t="s">
         <v>381</v>
       </c>
       <c r="D397" s="17" t="s">
@@ -15366,7 +15360,7 @@
       <c r="B398" s="10">
         <v>39907</v>
       </c>
-      <c r="C398" s="18" t="s">
+      <c r="C398" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D398" s="16" t="s">
@@ -15401,7 +15395,7 @@
       <c r="B399" s="11">
         <v>39948</v>
       </c>
-      <c r="C399" s="19" t="s">
+      <c r="C399" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D399" s="17" t="s">
@@ -15436,7 +15430,7 @@
       <c r="B400" s="10">
         <v>40191</v>
       </c>
-      <c r="C400" s="18" t="s">
+      <c r="C400" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D400" s="16" t="s">
@@ -15471,7 +15465,7 @@
       <c r="B401" s="11">
         <v>40775</v>
       </c>
-      <c r="C401" s="19" t="s">
+      <c r="C401" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D401" s="17" t="s">
@@ -15506,7 +15500,7 @@
       <c r="B402" s="10">
         <v>40869</v>
       </c>
-      <c r="C402" s="18" t="s">
+      <c r="C402" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D402" s="16" t="s">
@@ -15541,7 +15535,7 @@
       <c r="B403" s="11">
         <v>40963</v>
       </c>
-      <c r="C403" s="19" t="s">
+      <c r="C403" s="17" t="s">
         <v>388</v>
       </c>
       <c r="D403" s="17" t="s">
@@ -15576,7 +15570,7 @@
       <c r="B404" s="10">
         <v>41196</v>
       </c>
-      <c r="C404" s="18" t="s">
+      <c r="C404" s="16" t="s">
         <v>388</v>
       </c>
       <c r="D404" s="16" t="s">
@@ -15611,7 +15605,7 @@
       <c r="B405" s="11">
         <v>40341</v>
       </c>
-      <c r="C405" s="19" t="s">
+      <c r="C405" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D405" s="17" t="s">
@@ -15646,7 +15640,7 @@
       <c r="B406" s="10">
         <v>40382</v>
       </c>
-      <c r="C406" s="18" t="s">
+      <c r="C406" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D406" s="16" t="s">
@@ -15681,7 +15675,7 @@
       <c r="B407" s="11">
         <v>40625</v>
       </c>
-      <c r="C407" s="19" t="s">
+      <c r="C407" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D407" s="17" t="s">
@@ -15716,7 +15710,7 @@
       <c r="B408" s="10">
         <v>41209</v>
       </c>
-      <c r="C408" s="18" t="s">
+      <c r="C408" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D408" s="16" t="s">
@@ -15751,7 +15745,7 @@
       <c r="B409" s="11">
         <v>41303</v>
       </c>
-      <c r="C409" s="19" t="s">
+      <c r="C409" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D409" s="17" t="s">
@@ -15786,7 +15780,7 @@
       <c r="B410" s="10">
         <v>41397</v>
       </c>
-      <c r="C410" s="18" t="s">
+      <c r="C410" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D410" s="16" t="s">
@@ -15821,7 +15815,7 @@
       <c r="B411" s="11">
         <v>41630</v>
       </c>
-      <c r="C411" s="19" t="s">
+      <c r="C411" s="17" t="s">
         <v>394</v>
       </c>
       <c r="D411" s="17" t="s">
@@ -15856,7 +15850,7 @@
       <c r="B412" s="10">
         <v>39908</v>
       </c>
-      <c r="C412" s="18" t="s">
+      <c r="C412" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D412" s="16" t="s">
@@ -15891,7 +15885,7 @@
       <c r="B413" s="11">
         <v>40002</v>
       </c>
-      <c r="C413" s="19" t="s">
+      <c r="C413" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D413" s="17" t="s">
@@ -15926,7 +15920,7 @@
       <c r="B414" s="10">
         <v>40235</v>
       </c>
-      <c r="C414" s="18" t="s">
+      <c r="C414" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D414" s="16" t="s">
@@ -15961,7 +15955,7 @@
       <c r="B415" s="11">
         <v>40775</v>
       </c>
-      <c r="C415" s="19" t="s">
+      <c r="C415" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D415" s="17" t="s">
@@ -15996,7 +15990,7 @@
       <c r="B416" s="10">
         <v>40816</v>
       </c>
-      <c r="C416" s="18" t="s">
+      <c r="C416" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D416" s="16" t="s">
@@ -16031,7 +16025,7 @@
       <c r="B417" s="11">
         <v>41059</v>
       </c>
-      <c r="C417" s="19" t="s">
+      <c r="C417" s="17" t="s">
         <v>401</v>
       </c>
       <c r="D417" s="17" t="s">
